--- a/medicine/Handicap/Stephen_Dwoskin/Stephen_Dwoskin.xlsx
+++ b/medicine/Handicap/Stephen_Dwoskin/Stephen_Dwoskin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stephen Dwoskin (15 janvier 1939 à New York, et décédé le 28 juin 2012 à Londres) est un cinéaste américain. Il peut être présenté comme le réalisateur handicapé avant-gardiste de l'intime, l'un des talents les plus originaux du cinéma moderne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stephen Dwoskin (15 janvier 1939 à New York, et décédé le 28 juin 2012 à Londres) est un cinéaste américain. Il peut être présenté comme le réalisateur handicapé avant-gardiste de l'intime, l'un des talents les plus originaux du cinéma moderne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'âge de neuf ans, il est victime de la poliomyélite qui l'obligera à se déplacer avec des béquilles ou en chaise roulante. Il se forme au design à la Parsons School of Design et étudie à l'Université de New York.
 Dwoskin découvre le mouvement du cinéma underground dès ses débuts à New York en 1959 autour de Jonas Mekas ou Ron Rice (en). En 1961, il tourne son premier film Asleep.
@@ -522,10 +536,10 @@
 Stephen Dwoskin a reçu un prix au festival EXPRMNTL de Knokke-le-Zoute en 1967 pour les quatre courts métrages présentés : Chinese Checkers (1963), Alone (1963-64), Naissant (1964) et Soliloquy (1964-67).
 En 1981, il a été filmé par Gérard Courant pour son anthologie cinématographique Cinématon. Il est le numéro 121 de cette collection.
 En 2005, il tourne Avant le début (Without women) avec le cinéaste belge Boris Lehman.
-En 2006, la jeune réalisatrice galloise Claire Fowler réalise Portrait As… (16 mm ; couleur ; 7 min ; Royaume-Uni / France) un portrait de Dwoskin dans son environnement[2].
-Cyril Neyrat écrit en 2007 à propos de Stephen Dwoskin : « L'évolution récente de Dwoskin n'est pas sans évoquer celle du dernier Pollet : invalide, souffrant de difficultés respiratoires, le cinéaste est condamné à tourner chez lui, entre les murs de son pavillon de Brixton, avec le plus léger des matériels »[3].
+En 2006, la jeune réalisatrice galloise Claire Fowler réalise Portrait As… (16 mm ; couleur ; 7 min ; Royaume-Uni / France) un portrait de Dwoskin dans son environnement.
+Cyril Neyrat écrit en 2007 à propos de Stephen Dwoskin : « L'évolution récente de Dwoskin n'est pas sans évoquer celle du dernier Pollet : invalide, souffrant de difficultés respiratoires, le cinéaste est condamné à tourner chez lui, entre les murs de son pavillon de Brixton, avec le plus léger des matériels ».
 Un documentaire (Cinexpérimentaux Stephen Dwoskin) a été réalisé sur cet artiste en 2009 par Michel Amarger et Frédérique Devaux.
-Le 25 mars 2013, dans le cadre d'une rétrospective, son film posthume Stephen Dwoskin is... est projeté en avant-première en France[4].
+Le 25 mars 2013, dans le cadre d'une rétrospective, son film posthume Stephen Dwoskin is... est projeté en avant-première en France.
 </t>
         </is>
       </c>
@@ -554,7 +568,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1961 : Asleep (18 min)
 1961 : American Dream (3 min)
@@ -628,7 +644,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1967 : Prix Solvay à EXPRMNTL 4 pour l’ensemble de ses films présentés au cours de la compétition (Chinese Checkers, Naissant, Soliloquy, Grande-Bretagne, 1965-1967).
 1982 : Prix de l'Âge d'or pour Outside In</t>
